--- a/team_specific_matrix/Troy_B.xlsx
+++ b/team_specific_matrix/Troy_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.213768115942029</v>
+        <v>0.2095808383233533</v>
       </c>
       <c r="C2">
-        <v>0.4963768115942029</v>
+        <v>0.5179640718562875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02536231884057971</v>
+        <v>0.02095808383233533</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003623188405797101</v>
+        <v>0.002994011976047904</v>
       </c>
       <c r="P2">
-        <v>0.1485507246376812</v>
+        <v>0.1467065868263473</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1123188405797101</v>
+        <v>0.1017964071856287</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01398601398601399</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="C3">
-        <v>0.04195804195804196</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03496503496503497</v>
+        <v>0.03910614525139665</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6713286713286714</v>
+        <v>0.6983240223463687</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2377622377622378</v>
+        <v>0.217877094972067</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02702702702702703</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8108108108108109</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1621621621621622</v>
+        <v>0.1914893617021277</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05882352941176471</v>
+        <v>0.0593607305936073</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0053475935828877</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0481283422459893</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2780748663101604</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03208556149732621</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.160427807486631</v>
+        <v>0.1598173515981735</v>
       </c>
       <c r="R6">
-        <v>0.0748663101604278</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="S6">
-        <v>0.3422459893048128</v>
+        <v>0.3470319634703196</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1164021164021164</v>
+        <v>0.1131221719457014</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02645502645502645</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="E7">
-        <v>0.005291005291005291</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="F7">
-        <v>0.03703703703703703</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1216931216931217</v>
+        <v>0.1312217194570136</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01058201058201058</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1534391534391534</v>
+        <v>0.1447963800904978</v>
       </c>
       <c r="R7">
-        <v>0.08465608465608465</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="S7">
-        <v>0.4444444444444444</v>
+        <v>0.4389140271493213</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08918918918918919</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02162162162162162</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07567567567567568</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1324324324324324</v>
+        <v>0.1415525114155251</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01351351351351351</v>
+        <v>0.01141552511415525</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1432432432432433</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="R8">
-        <v>0.06216216216216217</v>
+        <v>0.06164383561643835</v>
       </c>
       <c r="S8">
-        <v>0.4621621621621622</v>
+        <v>0.4611872146118721</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1082474226804124</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02061855670103093</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="E9">
-        <v>0.005154639175257732</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="F9">
-        <v>0.05670103092783505</v>
+        <v>0.05726872246696035</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1134020618556701</v>
+        <v>0.105726872246696</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1597938144329897</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="R9">
-        <v>0.1134020618556701</v>
+        <v>0.1233480176211454</v>
       </c>
       <c r="S9">
-        <v>0.422680412371134</v>
+        <v>0.4317180616740088</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1144465290806754</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01876172607879925</v>
+        <v>0.0220125786163522</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07692307692307693</v>
+        <v>0.07232704402515723</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1172607879924953</v>
+        <v>0.1077044025157233</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01313320825515948</v>
+        <v>0.01336477987421384</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2016885553470919</v>
+        <v>0.1957547169811321</v>
       </c>
       <c r="R10">
-        <v>0.07410881801125703</v>
+        <v>0.07311320754716981</v>
       </c>
       <c r="S10">
-        <v>0.3836772983114446</v>
+        <v>0.3962264150943396</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1533333333333333</v>
+        <v>0.1432835820895522</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06333333333333334</v>
+        <v>0.06567164179104477</v>
       </c>
       <c r="K11">
-        <v>0.1966666666666667</v>
+        <v>0.1850746268656716</v>
       </c>
       <c r="L11">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006666666666666667</v>
+        <v>0.005970149253731343</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7231638418079096</v>
+        <v>0.7227722772277227</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2090395480225989</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="K12">
-        <v>0.01129943502824859</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="L12">
-        <v>0.02824858757062147</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02824858757062147</v>
+        <v>0.0297029702970297</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5151515151515151</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4545454545454545</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0303030303030303</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01875</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.15</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="I15">
-        <v>0.1125</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="J15">
-        <v>0.3625</v>
+        <v>0.3659793814432989</v>
       </c>
       <c r="K15">
-        <v>0.0375</v>
+        <v>0.03608247422680412</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00625</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="N15">
-        <v>0.00625</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="O15">
-        <v>0.0375</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.26875</v>
+        <v>0.2577319587628866</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.006172839506172839</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.09259259259259259</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="I16">
-        <v>0.09876543209876543</v>
+        <v>0.1073170731707317</v>
       </c>
       <c r="J16">
-        <v>0.3888888888888889</v>
+        <v>0.4048780487804878</v>
       </c>
       <c r="K16">
-        <v>0.1604938271604938</v>
+        <v>0.1414634146341463</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0308641975308642</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04938271604938271</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1728395061728395</v>
+        <v>0.1658536585365854</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02240896358543417</v>
+        <v>0.02457002457002457</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.165266106442577</v>
+        <v>0.1597051597051597</v>
       </c>
       <c r="I17">
-        <v>0.08403361344537816</v>
+        <v>0.085995085995086</v>
       </c>
       <c r="J17">
-        <v>0.3949579831932773</v>
+        <v>0.3832923832923833</v>
       </c>
       <c r="K17">
-        <v>0.1092436974789916</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0196078431372549</v>
+        <v>0.02457002457002457</v>
       </c>
       <c r="N17">
-        <v>0.002801120448179272</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="O17">
-        <v>0.05042016806722689</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1512605042016807</v>
+        <v>0.1572481572481572</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02580645161290323</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1483870967741935</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="I18">
-        <v>0.1096774193548387</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="J18">
-        <v>0.3935483870967742</v>
+        <v>0.4021739130434783</v>
       </c>
       <c r="K18">
-        <v>0.1096774193548387</v>
+        <v>0.1032608695652174</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01935483870967742</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06451612903225806</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1290322580645161</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01427371956339211</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2090680100755667</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="I19">
-        <v>0.09655751469353484</v>
+        <v>0.09300699300699301</v>
       </c>
       <c r="J19">
-        <v>0.3375314861460957</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="K19">
-        <v>0.1242653232577666</v>
+        <v>0.1174825174825175</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01511335012594458</v>
+        <v>0.01958041958041958</v>
       </c>
       <c r="N19">
-        <v>0.0008396305625524769</v>
+        <v>0.001398601398601399</v>
       </c>
       <c r="O19">
-        <v>0.05625524769101595</v>
+        <v>0.05314685314685315</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.146095717884131</v>
+        <v>0.1447552447552448</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Troy_B.xlsx
+++ b/team_specific_matrix/Troy_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2095808383233533</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="C2">
-        <v>0.5179640718562875</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02095808383233533</v>
+        <v>0.020671834625323</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.002994011976047904</v>
+        <v>0.002583979328165375</v>
       </c>
       <c r="P2">
-        <v>0.1467065868263473</v>
+        <v>0.1498708010335917</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1017964071856287</v>
+        <v>0.09819121447028424</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0111731843575419</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="C3">
-        <v>0.0335195530726257</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03910614525139665</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6983240223463687</v>
+        <v>0.7081339712918661</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.217877094972067</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02127659574468085</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7872340425531915</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1914893617021277</v>
+        <v>0.2363636363636364</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0593607305936073</v>
+        <v>0.05761316872427984</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0091324200913242</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0502283105022831</v>
+        <v>0.05349794238683128</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.273972602739726</v>
+        <v>0.2757201646090535</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0273972602739726</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1598173515981735</v>
+        <v>0.168724279835391</v>
       </c>
       <c r="R6">
-        <v>0.0730593607305936</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="S6">
-        <v>0.3470319634703196</v>
+        <v>0.345679012345679</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1131221719457014</v>
+        <v>0.1094339622641509</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02714932126696833</v>
+        <v>0.03018867924528302</v>
       </c>
       <c r="E7">
-        <v>0.004524886877828055</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="F7">
-        <v>0.04072398190045249</v>
+        <v>0.04150943396226415</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1312217194570136</v>
+        <v>0.1245283018867925</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01357466063348416</v>
+        <v>0.01509433962264151</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1447963800904978</v>
+        <v>0.1471698113207547</v>
       </c>
       <c r="R7">
-        <v>0.08597285067873303</v>
+        <v>0.07169811320754717</v>
       </c>
       <c r="S7">
-        <v>0.4389140271493213</v>
+        <v>0.4566037735849057</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0958904109589041</v>
+        <v>0.0975103734439834</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0182648401826484</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0730593607305936</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1415525114155251</v>
+        <v>0.1431535269709543</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01141552511415525</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.136986301369863</v>
+        <v>0.1452282157676349</v>
       </c>
       <c r="R8">
-        <v>0.06164383561643835</v>
+        <v>0.06016597510373444</v>
       </c>
       <c r="S8">
-        <v>0.4611872146118721</v>
+        <v>0.454356846473029</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.105726872246696</v>
+        <v>0.1285140562248996</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01762114537444934</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="E9">
-        <v>0.004405286343612335</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="F9">
-        <v>0.05726872246696035</v>
+        <v>0.05622489959839357</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.105726872246696</v>
+        <v>0.108433734939759</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.004405286343612335</v>
+        <v>0.008032128514056224</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1497797356828194</v>
+        <v>0.1405622489959839</v>
       </c>
       <c r="R9">
-        <v>0.1233480176211454</v>
+        <v>0.1164658634538153</v>
       </c>
       <c r="S9">
-        <v>0.4317180616740088</v>
+        <v>0.4216867469879518</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.119496855345912</v>
+        <v>0.1234132581100141</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0220125786163522</v>
+        <v>0.02397743300423131</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07232704402515723</v>
+        <v>0.07052186177715092</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1077044025157233</v>
+        <v>0.1100141043723554</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01336477987421384</v>
+        <v>0.01339915373765867</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1957547169811321</v>
+        <v>0.2002820874471086</v>
       </c>
       <c r="R10">
-        <v>0.07311320754716981</v>
+        <v>0.07052186177715092</v>
       </c>
       <c r="S10">
-        <v>0.3962264150943396</v>
+        <v>0.3878702397743301</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1432835820895522</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06567164179104477</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="K11">
-        <v>0.1850746268656716</v>
+        <v>0.1809045226130653</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.6080402010050251</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005970149253731343</v>
+        <v>0.005025125628140704</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7227722772277227</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2079207920792079</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="K12">
-        <v>0.01485148514851485</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="L12">
-        <v>0.02475247524752475</v>
+        <v>0.0205761316872428</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0297029702970297</v>
+        <v>0.02469135802469136</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5833333333333334</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3541666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03092783505154639</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1443298969072165</v>
+        <v>0.1415094339622641</v>
       </c>
       <c r="I15">
-        <v>0.1082474226804124</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="J15">
-        <v>0.3659793814432989</v>
+        <v>0.3679245283018868</v>
       </c>
       <c r="K15">
-        <v>0.03608247422680412</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005154639175257732</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="N15">
-        <v>0.005154639175257732</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="O15">
-        <v>0.04639175257731959</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2577319587628866</v>
+        <v>0.2547169811320755</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.004878048780487805</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.08292682926829269</v>
+        <v>0.1037344398340249</v>
       </c>
       <c r="I16">
-        <v>0.1073170731707317</v>
+        <v>0.1037344398340249</v>
       </c>
       <c r="J16">
-        <v>0.4048780487804878</v>
+        <v>0.3983402489626556</v>
       </c>
       <c r="K16">
-        <v>0.1414634146341463</v>
+        <v>0.1369294605809129</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03414634146341464</v>
+        <v>0.03734439834024896</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05853658536585366</v>
+        <v>0.05394190871369295</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1658536585365854</v>
+        <v>0.1618257261410788</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02457002457002457</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1597051597051597</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="I17">
-        <v>0.085995085995086</v>
+        <v>0.08836206896551724</v>
       </c>
       <c r="J17">
-        <v>0.3832923832923833</v>
+        <v>0.3900862068965517</v>
       </c>
       <c r="K17">
-        <v>0.1081081081081081</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02457002457002457</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="N17">
-        <v>0.002457002457002457</v>
+        <v>0.002155172413793103</v>
       </c>
       <c r="O17">
-        <v>0.05405405405405406</v>
+        <v>0.04956896551724138</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1572481572481572</v>
+        <v>0.146551724137931</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02173913043478261</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1630434782608696</v>
+        <v>0.1597938144329897</v>
       </c>
       <c r="I18">
-        <v>0.09782608695652174</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="J18">
-        <v>0.4021739130434783</v>
+        <v>0.3917525773195876</v>
       </c>
       <c r="K18">
-        <v>0.1032608695652174</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01630434782608696</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06521739130434782</v>
+        <v>0.06701030927835051</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1304347826086956</v>
+        <v>0.1237113402061856</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01538461538461539</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2090909090909091</v>
+        <v>0.2068527918781726</v>
       </c>
       <c r="I19">
-        <v>0.09300699300699301</v>
+        <v>0.09137055837563451</v>
       </c>
       <c r="J19">
-        <v>0.3461538461538461</v>
+        <v>0.3445431472081218</v>
       </c>
       <c r="K19">
-        <v>0.1174825174825175</v>
+        <v>0.1256345177664974</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01958041958041958</v>
+        <v>0.01776649746192894</v>
       </c>
       <c r="N19">
-        <v>0.001398601398601399</v>
+        <v>0.001269035532994924</v>
       </c>
       <c r="O19">
-        <v>0.05314685314685315</v>
+        <v>0.0532994923857868</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1447552447552448</v>
+        <v>0.1440355329949239</v>
       </c>
     </row>
   </sheetData>
